--- a/entradas/carga_mensal/CargaMensal_PMO-Março2020.xlsx
+++ b/entradas/carga_mensal/CargaMensal_PMO-Março2020.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcela\Desktop\Rotinas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrevisaoCarga\PMO Março 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="CargaMensal_PMO-Janeiro2020" sheetId="1" r:id="rId1"/>
+    <sheet name="SIPPOEE_saida" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIPPOEE_saida!$A$1:$G$961</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -874,14 +877,13 @@
   <dimension ref="A1:G961"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J21:J22"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,13 +921,13 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>10799.176299999999</v>
+        <v>10592.8344</v>
       </c>
       <c r="F2">
         <v>365</v>
       </c>
       <c r="G2" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,13 +941,13 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>12131.5790546798</v>
+        <v>11899.7786837438</v>
       </c>
       <c r="F3">
         <v>203</v>
       </c>
       <c r="G3" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,13 +961,13 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>12947.8074</v>
+        <v>12700.4112</v>
       </c>
       <c r="F4">
         <v>176</v>
       </c>
       <c r="G4" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,13 +981,13 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>11671</v>
+        <v>11448</v>
       </c>
       <c r="F5">
         <v>744</v>
       </c>
       <c r="G5" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1005,7 +1007,7 @@
         <v>391</v>
       </c>
       <c r="G6" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,7 +1027,7 @@
         <v>193</v>
       </c>
       <c r="G7" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,7 +1047,7 @@
         <v>160</v>
       </c>
       <c r="G8" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,7 +1067,7 @@
         <v>744</v>
       </c>
       <c r="G9" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,7 +1087,7 @@
         <v>378</v>
       </c>
       <c r="G10" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1105,7 +1107,7 @@
         <v>198</v>
       </c>
       <c r="G11" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,7 +1127,7 @@
         <v>168</v>
       </c>
       <c r="G12" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1145,7 +1147,7 @@
         <v>744</v>
       </c>
       <c r="G13" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,7 +1167,7 @@
         <v>365</v>
       </c>
       <c r="G14" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,7 +1187,7 @@
         <v>203</v>
       </c>
       <c r="G15" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,7 +1207,7 @@
         <v>176</v>
       </c>
       <c r="G16" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,7 +1227,7 @@
         <v>744</v>
       </c>
       <c r="G17" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1245,7 +1247,7 @@
         <v>365</v>
       </c>
       <c r="G18" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1267,7 @@
         <v>203</v>
       </c>
       <c r="G19" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,7 +1287,7 @@
         <v>176</v>
       </c>
       <c r="G20" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,7 +1307,7 @@
         <v>744</v>
       </c>
       <c r="G21" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>10893.546</v>
+        <v>10527.9534</v>
       </c>
       <c r="F22">
         <v>362</v>
       </c>
       <c r="G22" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1339,13 +1341,13 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>12348.0158901099</v>
+        <v>11933.6105868132</v>
       </c>
       <c r="F23">
         <v>182</v>
       </c>
       <c r="G23" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1359,13 +1361,13 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>13027.878000000001</v>
+        <v>12590.656199999999</v>
       </c>
       <c r="F24">
         <v>152</v>
       </c>
       <c r="G24" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1379,13 +1381,13 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>11740</v>
+        <v>11346</v>
       </c>
       <c r="F25">
         <v>696</v>
       </c>
       <c r="G25" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1405,7 +1407,7 @@
         <v>341</v>
       </c>
       <c r="G26" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1425,7 +1427,7 @@
         <v>179</v>
       </c>
       <c r="G27" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1445,7 +1447,7 @@
         <v>152</v>
       </c>
       <c r="G28" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1465,7 +1467,7 @@
         <v>672</v>
       </c>
       <c r="G29" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,7 +1487,7 @@
         <v>328</v>
       </c>
       <c r="G30" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,7 +1507,7 @@
         <v>184</v>
       </c>
       <c r="G31" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1525,7 +1527,7 @@
         <v>160</v>
       </c>
       <c r="G32" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,7 +1547,7 @@
         <v>672</v>
       </c>
       <c r="G33" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1565,7 +1567,7 @@
         <v>341</v>
       </c>
       <c r="G34" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,7 +1587,7 @@
         <v>179</v>
       </c>
       <c r="G35" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1605,7 +1607,7 @@
         <v>152</v>
       </c>
       <c r="G36" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1625,7 +1627,7 @@
         <v>672</v>
       </c>
       <c r="G37" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1645,7 +1647,7 @@
         <v>349</v>
       </c>
       <c r="G38" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1665,7 +1667,7 @@
         <v>187</v>
       </c>
       <c r="G39" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,7 +1687,7 @@
         <v>160</v>
       </c>
       <c r="G40" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1705,7 +1707,7 @@
         <v>696</v>
       </c>
       <c r="G41" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>10987.749400000001</v>
+        <v>10644.813200000001</v>
       </c>
       <c r="F42">
         <v>365</v>
       </c>
       <c r="G42" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1739,13 +1741,13 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>12681.000048275901</v>
+        <v>12285.216179310301</v>
       </c>
       <c r="F43">
         <v>203</v>
       </c>
       <c r="G43" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1759,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>13106.661700000001</v>
+        <v>12697.5926</v>
       </c>
       <c r="F44">
         <v>176</v>
       </c>
       <c r="G44" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1779,13 +1781,13 @@
         <v>11</v>
       </c>
       <c r="E45">
-        <v>11951</v>
+        <v>11578</v>
       </c>
       <c r="F45">
         <v>744</v>
       </c>
       <c r="G45" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1807,7 @@
         <v>352</v>
       </c>
       <c r="G46" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1825,7 +1827,7 @@
         <v>208</v>
       </c>
       <c r="G47" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1845,7 +1847,7 @@
         <v>184</v>
       </c>
       <c r="G48" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1865,7 +1867,7 @@
         <v>744</v>
       </c>
       <c r="G49" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,7 +1887,7 @@
         <v>365</v>
       </c>
       <c r="G50" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1905,7 +1907,7 @@
         <v>203</v>
       </c>
       <c r="G51" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1925,7 +1927,7 @@
         <v>176</v>
       </c>
       <c r="G52" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,7 +1947,7 @@
         <v>744</v>
       </c>
       <c r="G53" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,7 +1967,7 @@
         <v>352</v>
       </c>
       <c r="G54" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,7 +1987,7 @@
         <v>208</v>
       </c>
       <c r="G55" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2005,7 +2007,7 @@
         <v>184</v>
       </c>
       <c r="G56" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2025,7 +2027,7 @@
         <v>744</v>
       </c>
       <c r="G57" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2045,7 +2047,7 @@
         <v>391</v>
       </c>
       <c r="G58" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,7 +2067,7 @@
         <v>193</v>
       </c>
       <c r="G59" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2085,7 +2087,7 @@
         <v>160</v>
       </c>
       <c r="G60" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,7 +2107,7 @@
         <v>744</v>
       </c>
       <c r="G61" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2119,13 +2121,13 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>10757.7808</v>
+        <v>10458.445</v>
       </c>
       <c r="F62">
         <v>360</v>
       </c>
       <c r="G62" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,13 +2141,13 @@
         <v>9</v>
       </c>
       <c r="E63">
-        <v>12531.745199999999</v>
+        <v>12183.04875</v>
       </c>
       <c r="F63">
         <v>160</v>
       </c>
       <c r="G63" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2159,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="E64">
-        <v>12917.7984</v>
+        <v>12558.36</v>
       </c>
       <c r="F64">
         <v>200</v>
       </c>
       <c r="G64" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,13 +2181,13 @@
         <v>11</v>
       </c>
       <c r="E65">
-        <v>11752</v>
+        <v>11425</v>
       </c>
       <c r="F65">
         <v>720</v>
       </c>
       <c r="G65" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2205,7 +2207,7 @@
         <v>360</v>
       </c>
       <c r="G66" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,7 +2227,7 @@
         <v>160</v>
       </c>
       <c r="G67" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2245,7 +2247,7 @@
         <v>200</v>
       </c>
       <c r="G68" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2265,7 +2267,7 @@
         <v>720</v>
       </c>
       <c r="G69" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2285,7 +2287,7 @@
         <v>372</v>
       </c>
       <c r="G70" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2305,7 +2307,7 @@
         <v>158</v>
       </c>
       <c r="G71" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2325,7 +2327,7 @@
         <v>190</v>
       </c>
       <c r="G72" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2345,7 +2347,7 @@
         <v>720</v>
       </c>
       <c r="G73" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2365,7 +2367,7 @@
         <v>384</v>
       </c>
       <c r="G74" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,7 +2387,7 @@
         <v>156</v>
       </c>
       <c r="G75" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2405,7 +2407,7 @@
         <v>180</v>
       </c>
       <c r="G76" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2425,7 +2427,7 @@
         <v>720</v>
       </c>
       <c r="G77" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2445,7 +2447,7 @@
         <v>336</v>
       </c>
       <c r="G78" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2465,7 +2467,7 @@
         <v>164</v>
       </c>
       <c r="G79" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,7 +2487,7 @@
         <v>220</v>
       </c>
       <c r="G80" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2505,7 +2507,7 @@
         <v>720</v>
       </c>
       <c r="G81" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,7 +2527,7 @@
         <v>360</v>
       </c>
       <c r="G82" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2545,7 +2547,7 @@
         <v>144</v>
       </c>
       <c r="G83" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2565,7 +2567,7 @@
         <v>240</v>
       </c>
       <c r="G84" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2585,7 +2587,7 @@
         <v>744</v>
       </c>
       <c r="G85" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2605,7 +2607,7 @@
         <v>347</v>
       </c>
       <c r="G86" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2625,7 +2627,7 @@
         <v>145</v>
       </c>
       <c r="G87" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,7 +2647,7 @@
         <v>252</v>
       </c>
       <c r="G88" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2665,7 +2667,7 @@
         <v>744</v>
       </c>
       <c r="G89" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2685,7 +2687,7 @@
         <v>334</v>
       </c>
       <c r="G90" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2705,7 +2707,7 @@
         <v>146</v>
       </c>
       <c r="G91" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2725,7 +2727,7 @@
         <v>264</v>
       </c>
       <c r="G92" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2745,7 +2747,7 @@
         <v>744</v>
       </c>
       <c r="G93" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2765,7 +2767,7 @@
         <v>334</v>
       </c>
       <c r="G94" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2785,7 +2787,7 @@
         <v>146</v>
       </c>
       <c r="G95" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2805,7 +2807,7 @@
         <v>264</v>
       </c>
       <c r="G96" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2825,7 +2827,7 @@
         <v>744</v>
       </c>
       <c r="G97" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,7 +2847,7 @@
         <v>347</v>
       </c>
       <c r="G98" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2865,7 +2867,7 @@
         <v>145</v>
       </c>
       <c r="G99" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2885,7 +2887,7 @@
         <v>252</v>
       </c>
       <c r="G100" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2905,7 +2907,7 @@
         <v>744</v>
       </c>
       <c r="G101" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2925,7 +2927,7 @@
         <v>327</v>
       </c>
       <c r="G102" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,7 +2947,7 @@
         <v>141</v>
       </c>
       <c r="G103" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,7 +2967,7 @@
         <v>252</v>
       </c>
       <c r="G104" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,7 +2987,7 @@
         <v>720</v>
       </c>
       <c r="G105" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,7 +3007,7 @@
         <v>327</v>
       </c>
       <c r="G106" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3025,7 +3027,7 @@
         <v>141</v>
       </c>
       <c r="G107" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3045,7 +3047,7 @@
         <v>252</v>
       </c>
       <c r="G108" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,7 +3067,7 @@
         <v>720</v>
       </c>
       <c r="G109" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,7 +3087,7 @@
         <v>327</v>
       </c>
       <c r="G110" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,7 +3107,7 @@
         <v>141</v>
       </c>
       <c r="G111" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,7 +3127,7 @@
         <v>252</v>
       </c>
       <c r="G112" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,7 +3147,7 @@
         <v>720</v>
       </c>
       <c r="G113" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3165,7 +3167,7 @@
         <v>327</v>
       </c>
       <c r="G114" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,7 +3187,7 @@
         <v>141</v>
       </c>
       <c r="G115" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,7 +3207,7 @@
         <v>252</v>
       </c>
       <c r="G116" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3225,7 +3227,7 @@
         <v>720</v>
       </c>
       <c r="G117" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3245,7 +3247,7 @@
         <v>340</v>
       </c>
       <c r="G118" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,7 +3267,7 @@
         <v>140</v>
       </c>
       <c r="G119" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3285,7 +3287,7 @@
         <v>240</v>
       </c>
       <c r="G120" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,7 +3307,7 @@
         <v>720</v>
       </c>
       <c r="G121" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3325,7 +3327,7 @@
         <v>321</v>
       </c>
       <c r="G122" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3345,7 +3347,7 @@
         <v>147</v>
       </c>
       <c r="G123" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3365,7 +3367,7 @@
         <v>276</v>
       </c>
       <c r="G124" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3385,7 +3387,7 @@
         <v>744</v>
       </c>
       <c r="G125" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3405,7 +3407,7 @@
         <v>334</v>
       </c>
       <c r="G126" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3425,7 +3427,7 @@
         <v>146</v>
       </c>
       <c r="G127" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3445,7 +3447,7 @@
         <v>264</v>
       </c>
       <c r="G128" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,7 +3467,7 @@
         <v>744</v>
       </c>
       <c r="G129" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3485,7 +3487,7 @@
         <v>347</v>
       </c>
       <c r="G130" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3505,7 +3507,7 @@
         <v>145</v>
       </c>
       <c r="G131" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3525,7 +3527,7 @@
         <v>252</v>
       </c>
       <c r="G132" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3545,7 +3547,7 @@
         <v>744</v>
       </c>
       <c r="G133" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3565,7 +3567,7 @@
         <v>347</v>
       </c>
       <c r="G134" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3585,7 +3587,7 @@
         <v>145</v>
       </c>
       <c r="G135" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,7 +3607,7 @@
         <v>252</v>
       </c>
       <c r="G136" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3625,7 +3627,7 @@
         <v>744</v>
       </c>
       <c r="G137" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3645,7 +3647,7 @@
         <v>321</v>
       </c>
       <c r="G138" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3665,7 +3667,7 @@
         <v>147</v>
       </c>
       <c r="G139" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3685,7 +3687,7 @@
         <v>276</v>
       </c>
       <c r="G140" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3705,7 +3707,7 @@
         <v>744</v>
       </c>
       <c r="G141" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3725,7 +3727,7 @@
         <v>347</v>
       </c>
       <c r="G142" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3745,7 +3747,7 @@
         <v>145</v>
       </c>
       <c r="G143" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3765,7 +3767,7 @@
         <v>252</v>
       </c>
       <c r="G144" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3785,7 +3787,7 @@
         <v>744</v>
       </c>
       <c r="G145" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3805,7 +3807,7 @@
         <v>334</v>
       </c>
       <c r="G146" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3825,7 +3827,7 @@
         <v>146</v>
       </c>
       <c r="G147" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3845,7 +3847,7 @@
         <v>264</v>
       </c>
       <c r="G148" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3865,7 +3867,7 @@
         <v>744</v>
       </c>
       <c r="G149" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3885,7 +3887,7 @@
         <v>321</v>
       </c>
       <c r="G150" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -3905,7 +3907,7 @@
         <v>147</v>
       </c>
       <c r="G151" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -3925,7 +3927,7 @@
         <v>276</v>
       </c>
       <c r="G152" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3945,7 +3947,7 @@
         <v>744</v>
       </c>
       <c r="G153" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -3965,7 +3967,7 @@
         <v>321</v>
       </c>
       <c r="G154" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -3985,7 +3987,7 @@
         <v>147</v>
       </c>
       <c r="G155" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4005,7 +4007,7 @@
         <v>276</v>
       </c>
       <c r="G156" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,7 +4027,7 @@
         <v>744</v>
       </c>
       <c r="G157" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4045,7 +4047,7 @@
         <v>334</v>
       </c>
       <c r="G158" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,7 +4067,7 @@
         <v>146</v>
       </c>
       <c r="G159" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4085,7 +4087,7 @@
         <v>264</v>
       </c>
       <c r="G160" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4105,7 +4107,7 @@
         <v>744</v>
       </c>
       <c r="G161" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4125,7 +4127,7 @@
         <v>348</v>
       </c>
       <c r="G162" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4145,7 +4147,7 @@
         <v>162</v>
       </c>
       <c r="G163" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4165,7 +4167,7 @@
         <v>210</v>
       </c>
       <c r="G164" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4185,7 +4187,7 @@
         <v>720</v>
       </c>
       <c r="G165" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,7 +4207,7 @@
         <v>348</v>
       </c>
       <c r="G166" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4225,7 +4227,7 @@
         <v>162</v>
       </c>
       <c r="G167" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4245,7 +4247,7 @@
         <v>210</v>
       </c>
       <c r="G168" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4265,7 +4267,7 @@
         <v>720</v>
       </c>
       <c r="G169" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,7 +4287,7 @@
         <v>348</v>
       </c>
       <c r="G170" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4305,7 +4307,7 @@
         <v>162</v>
       </c>
       <c r="G171" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,7 +4327,7 @@
         <v>210</v>
       </c>
       <c r="G172" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4345,7 +4347,7 @@
         <v>720</v>
       </c>
       <c r="G173" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4365,7 +4367,7 @@
         <v>360</v>
       </c>
       <c r="G174" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4385,7 +4387,7 @@
         <v>160</v>
       </c>
       <c r="G175" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4405,7 +4407,7 @@
         <v>200</v>
       </c>
       <c r="G176" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4425,7 +4427,7 @@
         <v>720</v>
       </c>
       <c r="G177" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,7 +4447,7 @@
         <v>348</v>
       </c>
       <c r="G178" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4465,7 +4467,7 @@
         <v>162</v>
       </c>
       <c r="G179" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,7 +4487,7 @@
         <v>210</v>
       </c>
       <c r="G180" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4505,7 +4507,7 @@
         <v>720</v>
       </c>
       <c r="G181" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,7 +4527,7 @@
         <v>368</v>
       </c>
       <c r="G182" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4545,7 +4547,7 @@
         <v>166</v>
       </c>
       <c r="G183" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4565,7 +4567,7 @@
         <v>210</v>
       </c>
       <c r="G184" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4585,7 +4587,7 @@
         <v>744</v>
       </c>
       <c r="G185" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4605,7 +4607,7 @@
         <v>380</v>
       </c>
       <c r="G186" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4625,7 +4627,7 @@
         <v>164</v>
       </c>
       <c r="G187" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4645,7 +4647,7 @@
         <v>200</v>
       </c>
       <c r="G188" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4665,7 +4667,7 @@
         <v>744</v>
       </c>
       <c r="G189" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4685,7 +4687,7 @@
         <v>380</v>
       </c>
       <c r="G190" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4705,7 +4707,7 @@
         <v>164</v>
       </c>
       <c r="G191" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -4725,7 +4727,7 @@
         <v>200</v>
       </c>
       <c r="G192" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -4745,7 +4747,7 @@
         <v>744</v>
       </c>
       <c r="G193" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -4765,7 +4767,7 @@
         <v>368</v>
       </c>
       <c r="G194" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -4785,7 +4787,7 @@
         <v>166</v>
       </c>
       <c r="G195" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -4805,7 +4807,7 @@
         <v>210</v>
       </c>
       <c r="G196" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -4825,7 +4827,7 @@
         <v>744</v>
       </c>
       <c r="G197" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -4845,7 +4847,7 @@
         <v>344</v>
       </c>
       <c r="G198" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -4865,7 +4867,7 @@
         <v>170</v>
       </c>
       <c r="G199" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -4885,7 +4887,7 @@
         <v>230</v>
       </c>
       <c r="G200" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -4905,7 +4907,7 @@
         <v>744</v>
       </c>
       <c r="G201" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -4925,7 +4927,7 @@
         <v>370</v>
       </c>
       <c r="G202" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -4945,7 +4947,7 @@
         <v>190</v>
       </c>
       <c r="G203" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4965,7 +4967,7 @@
         <v>160</v>
       </c>
       <c r="G204" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4985,7 +4987,7 @@
         <v>720</v>
       </c>
       <c r="G205" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5005,7 +5007,7 @@
         <v>370</v>
       </c>
       <c r="G206" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5025,7 +5027,7 @@
         <v>190</v>
       </c>
       <c r="G207" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5045,7 +5047,7 @@
         <v>160</v>
       </c>
       <c r="G208" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5065,7 +5067,7 @@
         <v>720</v>
       </c>
       <c r="G209" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5085,7 +5087,7 @@
         <v>370</v>
       </c>
       <c r="G210" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5105,7 +5107,7 @@
         <v>190</v>
       </c>
       <c r="G211" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5125,7 +5127,7 @@
         <v>160</v>
       </c>
       <c r="G212" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5145,7 +5147,7 @@
         <v>720</v>
       </c>
       <c r="G213" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5165,7 +5167,7 @@
         <v>370</v>
       </c>
       <c r="G214" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5185,7 +5187,7 @@
         <v>190</v>
       </c>
       <c r="G215" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5205,7 +5207,7 @@
         <v>160</v>
       </c>
       <c r="G216" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5225,7 +5227,7 @@
         <v>720</v>
       </c>
       <c r="G217" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,7 +5247,7 @@
         <v>370</v>
       </c>
       <c r="G218" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5265,7 +5267,7 @@
         <v>190</v>
       </c>
       <c r="G219" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5285,7 +5287,7 @@
         <v>160</v>
       </c>
       <c r="G220" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5305,7 +5307,7 @@
         <v>720</v>
       </c>
       <c r="G221" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5325,7 +5327,7 @@
         <v>365</v>
       </c>
       <c r="G222" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5345,7 +5347,7 @@
         <v>203</v>
       </c>
       <c r="G223" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5365,7 +5367,7 @@
         <v>176</v>
       </c>
       <c r="G224" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -5385,7 +5387,7 @@
         <v>744</v>
       </c>
       <c r="G225" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5405,7 +5407,7 @@
         <v>352</v>
       </c>
       <c r="G226" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5425,7 +5427,7 @@
         <v>208</v>
       </c>
       <c r="G227" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5445,7 +5447,7 @@
         <v>184</v>
       </c>
       <c r="G228" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -5465,7 +5467,7 @@
         <v>744</v>
       </c>
       <c r="G229" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -5485,7 +5487,7 @@
         <v>365</v>
       </c>
       <c r="G230" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -5505,7 +5507,7 @@
         <v>203</v>
       </c>
       <c r="G231" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -5525,7 +5527,7 @@
         <v>176</v>
       </c>
       <c r="G232" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -5545,7 +5547,7 @@
         <v>744</v>
       </c>
       <c r="G233" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -5565,7 +5567,7 @@
         <v>391</v>
       </c>
       <c r="G234" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,7 +5587,7 @@
         <v>193</v>
       </c>
       <c r="G235" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -5605,7 +5607,7 @@
         <v>160</v>
       </c>
       <c r="G236" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -5625,7 +5627,7 @@
         <v>744</v>
       </c>
       <c r="G237" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -5645,7 +5647,7 @@
         <v>378</v>
       </c>
       <c r="G238" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -5665,7 +5667,7 @@
         <v>198</v>
       </c>
       <c r="G239" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -5685,7 +5687,7 @@
         <v>168</v>
       </c>
       <c r="G240" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -5705,7 +5707,7 @@
         <v>744</v>
       </c>
       <c r="G241" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -5719,13 +5721,13 @@
         <v>8</v>
       </c>
       <c r="E242">
-        <v>5499.8359</v>
+        <v>5280.1122999999998</v>
       </c>
       <c r="F242">
         <v>365</v>
       </c>
       <c r="G242" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -5739,13 +5741,13 @@
         <v>9</v>
       </c>
       <c r="E243">
-        <v>5847.4287472906399</v>
+        <v>5613.8184871921203</v>
       </c>
       <c r="F243">
         <v>203</v>
       </c>
       <c r="G243" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -5759,13 +5761,13 @@
         <v>10</v>
       </c>
       <c r="E244">
-        <v>5974.6583000000001</v>
+        <v>5735.9651000000003</v>
       </c>
       <c r="F244">
         <v>176</v>
       </c>
       <c r="G244" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -5779,13 +5781,13 @@
         <v>11</v>
       </c>
       <c r="E245">
-        <v>5707</v>
+        <v>5479</v>
       </c>
       <c r="F245">
         <v>744</v>
       </c>
       <c r="G245" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -5805,7 +5807,7 @@
         <v>391</v>
       </c>
       <c r="G246" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -5825,7 +5827,7 @@
         <v>193</v>
       </c>
       <c r="G247" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -5845,7 +5847,7 @@
         <v>160</v>
       </c>
       <c r="G248" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -5865,7 +5867,7 @@
         <v>744</v>
       </c>
       <c r="G249" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -5885,7 +5887,7 @@
         <v>378</v>
       </c>
       <c r="G250" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,7 +5907,7 @@
         <v>198</v>
       </c>
       <c r="G251" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -5925,7 +5927,7 @@
         <v>168</v>
       </c>
       <c r="G252" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -5945,7 +5947,7 @@
         <v>744</v>
       </c>
       <c r="G253" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -5965,7 +5967,7 @@
         <v>365</v>
       </c>
       <c r="G254" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -5985,7 +5987,7 @@
         <v>203</v>
       </c>
       <c r="G255" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -6005,7 +6007,7 @@
         <v>176</v>
       </c>
       <c r="G256" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -6025,7 +6027,7 @@
         <v>744</v>
       </c>
       <c r="G257" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -6045,7 +6047,7 @@
         <v>365</v>
       </c>
       <c r="G258" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6065,7 +6067,7 @@
         <v>203</v>
       </c>
       <c r="G259" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -6085,7 +6087,7 @@
         <v>176</v>
       </c>
       <c r="G260" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -6105,7 +6107,7 @@
         <v>744</v>
       </c>
       <c r="G261" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -6119,13 +6121,13 @@
         <v>8</v>
       </c>
       <c r="E262">
-        <v>5780.0456999999997</v>
+        <v>5335.4268000000002</v>
       </c>
       <c r="F262">
         <v>362</v>
       </c>
       <c r="G262" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -6139,13 +6141,13 @@
         <v>9</v>
       </c>
       <c r="E263">
-        <v>6236.4049571428604</v>
+        <v>5756.6814989011</v>
       </c>
       <c r="F263">
         <v>182</v>
       </c>
       <c r="G263" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -6159,13 +6161,13 @@
         <v>10</v>
       </c>
       <c r="E264">
-        <v>6327.7746999999999</v>
+        <v>5841.0227999999997</v>
       </c>
       <c r="F264">
         <v>152</v>
       </c>
       <c r="G264" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -6179,13 +6181,13 @@
         <v>11</v>
       </c>
       <c r="E265">
-        <v>6019</v>
+        <v>5556</v>
       </c>
       <c r="F265">
         <v>696</v>
       </c>
       <c r="G265" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -6205,7 +6207,7 @@
         <v>341</v>
       </c>
       <c r="G266" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6225,7 +6227,7 @@
         <v>179</v>
       </c>
       <c r="G267" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -6245,7 +6247,7 @@
         <v>152</v>
       </c>
       <c r="G268" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -6265,7 +6267,7 @@
         <v>672</v>
       </c>
       <c r="G269" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -6285,7 +6287,7 @@
         <v>328</v>
       </c>
       <c r="G270" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -6305,7 +6307,7 @@
         <v>184</v>
       </c>
       <c r="G271" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -6325,7 +6327,7 @@
         <v>160</v>
       </c>
       <c r="G272" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -6345,7 +6347,7 @@
         <v>672</v>
       </c>
       <c r="G273" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,7 +6367,7 @@
         <v>341</v>
       </c>
       <c r="G274" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -6385,7 +6387,7 @@
         <v>179</v>
       </c>
       <c r="G275" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -6405,7 +6407,7 @@
         <v>152</v>
       </c>
       <c r="G276" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -6425,7 +6427,7 @@
         <v>672</v>
       </c>
       <c r="G277" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -6445,7 +6447,7 @@
         <v>349</v>
       </c>
       <c r="G278" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -6465,7 +6467,7 @@
         <v>187</v>
       </c>
       <c r="G279" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -6485,7 +6487,7 @@
         <v>160</v>
       </c>
       <c r="G280" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -6505,7 +6507,7 @@
         <v>696</v>
       </c>
       <c r="G281" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -6519,13 +6521,13 @@
         <v>8</v>
       </c>
       <c r="E282">
-        <v>5822.4250000000002</v>
+        <v>5362.3346000000001</v>
       </c>
       <c r="F282">
         <v>365</v>
       </c>
       <c r="G282" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -6539,13 +6541,13 @@
         <v>9</v>
       </c>
       <c r="E283">
-        <v>6393.9629310344799</v>
+        <v>5888.7093704433501</v>
       </c>
       <c r="F283">
         <v>203</v>
       </c>
       <c r="G283" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -6559,13 +6561,13 @@
         <v>10</v>
       </c>
       <c r="E284">
-        <v>6442.2749999999996</v>
+        <v>5933.2038000000002</v>
       </c>
       <c r="F284">
         <v>176</v>
       </c>
       <c r="G284" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -6579,13 +6581,13 @@
         <v>11</v>
       </c>
       <c r="E285">
-        <v>6125</v>
+        <v>5641</v>
       </c>
       <c r="F285">
         <v>744</v>
       </c>
       <c r="G285" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -6605,7 +6607,7 @@
         <v>352</v>
       </c>
       <c r="G286" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -6625,7 +6627,7 @@
         <v>208</v>
       </c>
       <c r="G287" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -6645,7 +6647,7 @@
         <v>184</v>
       </c>
       <c r="G288" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -6665,7 +6667,7 @@
         <v>744</v>
       </c>
       <c r="G289" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -6685,7 +6687,7 @@
         <v>365</v>
       </c>
       <c r="G290" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -6705,7 +6707,7 @@
         <v>203</v>
       </c>
       <c r="G291" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -6725,7 +6727,7 @@
         <v>176</v>
       </c>
       <c r="G292" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -6745,7 +6747,7 @@
         <v>744</v>
       </c>
       <c r="G293" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -6765,7 +6767,7 @@
         <v>352</v>
       </c>
       <c r="G294" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -6785,7 +6787,7 @@
         <v>208</v>
       </c>
       <c r="G295" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -6805,7 +6807,7 @@
         <v>184</v>
       </c>
       <c r="G296" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -6825,7 +6827,7 @@
         <v>744</v>
       </c>
       <c r="G297" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -6845,7 +6847,7 @@
         <v>391</v>
       </c>
       <c r="G298" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -6865,7 +6867,7 @@
         <v>193</v>
       </c>
       <c r="G299" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -6885,7 +6887,7 @@
         <v>160</v>
       </c>
       <c r="G300" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -6905,7 +6907,7 @@
         <v>744</v>
       </c>
       <c r="G301" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -6919,13 +6921,13 @@
         <v>8</v>
       </c>
       <c r="E302">
-        <v>5808.1578</v>
+        <v>5319.1791999999996</v>
       </c>
       <c r="F302">
         <v>360</v>
       </c>
       <c r="G302" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -6939,13 +6941,13 @@
         <v>9</v>
       </c>
       <c r="E303">
-        <v>6426.2494500000003</v>
+        <v>5885.2348000000002</v>
       </c>
       <c r="F303">
         <v>160</v>
       </c>
       <c r="G303" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -6959,13 +6961,13 @@
         <v>10</v>
       </c>
       <c r="E304">
-        <v>6511.9164000000001</v>
+        <v>5963.6895999999997</v>
       </c>
       <c r="F304">
         <v>200</v>
       </c>
       <c r="G304" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -6979,13 +6981,13 @@
         <v>11</v>
       </c>
       <c r="E305">
-        <v>6141</v>
+        <v>5624</v>
       </c>
       <c r="F305">
         <v>720</v>
       </c>
       <c r="G305" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -7005,7 +7007,7 @@
         <v>360</v>
       </c>
       <c r="G306" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -7025,7 +7027,7 @@
         <v>160</v>
       </c>
       <c r="G307" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -7045,7 +7047,7 @@
         <v>200</v>
       </c>
       <c r="G308" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -7065,7 +7067,7 @@
         <v>720</v>
       </c>
       <c r="G309" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -7085,7 +7087,7 @@
         <v>372</v>
       </c>
       <c r="G310" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -7105,7 +7107,7 @@
         <v>158</v>
       </c>
       <c r="G311" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -7125,7 +7127,7 @@
         <v>190</v>
       </c>
       <c r="G312" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -7145,7 +7147,7 @@
         <v>720</v>
       </c>
       <c r="G313" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -7165,7 +7167,7 @@
         <v>384</v>
       </c>
       <c r="G314" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -7185,7 +7187,7 @@
         <v>156</v>
       </c>
       <c r="G315" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -7205,7 +7207,7 @@
         <v>180</v>
       </c>
       <c r="G316" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -7225,7 +7227,7 @@
         <v>720</v>
       </c>
       <c r="G317" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -7245,7 +7247,7 @@
         <v>336</v>
       </c>
       <c r="G318" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -7265,7 +7267,7 @@
         <v>164</v>
       </c>
       <c r="G319" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -7285,7 +7287,7 @@
         <v>220</v>
       </c>
       <c r="G320" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -7305,7 +7307,7 @@
         <v>720</v>
       </c>
       <c r="G321" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -7325,7 +7327,7 @@
         <v>360</v>
       </c>
       <c r="G322" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -7345,7 +7347,7 @@
         <v>144</v>
       </c>
       <c r="G323" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -7365,7 +7367,7 @@
         <v>240</v>
       </c>
       <c r="G324" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -7385,7 +7387,7 @@
         <v>744</v>
       </c>
       <c r="G325" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -7405,7 +7407,7 @@
         <v>347</v>
       </c>
       <c r="G326" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -7425,7 +7427,7 @@
         <v>145</v>
       </c>
       <c r="G327" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -7445,7 +7447,7 @@
         <v>252</v>
       </c>
       <c r="G328" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -7465,7 +7467,7 @@
         <v>744</v>
       </c>
       <c r="G329" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -7485,7 +7487,7 @@
         <v>334</v>
       </c>
       <c r="G330" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -7505,7 +7507,7 @@
         <v>146</v>
       </c>
       <c r="G331" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -7525,7 +7527,7 @@
         <v>264</v>
       </c>
       <c r="G332" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -7545,7 +7547,7 @@
         <v>744</v>
       </c>
       <c r="G333" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -7565,7 +7567,7 @@
         <v>334</v>
       </c>
       <c r="G334" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -7585,7 +7587,7 @@
         <v>146</v>
       </c>
       <c r="G335" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -7605,7 +7607,7 @@
         <v>264</v>
       </c>
       <c r="G336" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -7625,7 +7627,7 @@
         <v>744</v>
       </c>
       <c r="G337" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -7645,7 +7647,7 @@
         <v>347</v>
       </c>
       <c r="G338" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -7665,7 +7667,7 @@
         <v>145</v>
       </c>
       <c r="G339" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -7685,7 +7687,7 @@
         <v>252</v>
       </c>
       <c r="G340" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -7705,7 +7707,7 @@
         <v>744</v>
       </c>
       <c r="G341" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -7725,7 +7727,7 @@
         <v>327</v>
       </c>
       <c r="G342" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,7 +7747,7 @@
         <v>141</v>
       </c>
       <c r="G343" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -7765,7 +7767,7 @@
         <v>252</v>
       </c>
       <c r="G344" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -7785,7 +7787,7 @@
         <v>720</v>
       </c>
       <c r="G345" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -7805,7 +7807,7 @@
         <v>327</v>
       </c>
       <c r="G346" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -7825,7 +7827,7 @@
         <v>141</v>
       </c>
       <c r="G347" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -7845,7 +7847,7 @@
         <v>252</v>
       </c>
       <c r="G348" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -7865,7 +7867,7 @@
         <v>720</v>
       </c>
       <c r="G349" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -7885,7 +7887,7 @@
         <v>327</v>
       </c>
       <c r="G350" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -7905,7 +7907,7 @@
         <v>141</v>
       </c>
       <c r="G351" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -7925,7 +7927,7 @@
         <v>252</v>
       </c>
       <c r="G352" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -7945,7 +7947,7 @@
         <v>720</v>
       </c>
       <c r="G353" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -7965,7 +7967,7 @@
         <v>327</v>
       </c>
       <c r="G354" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -7985,7 +7987,7 @@
         <v>141</v>
       </c>
       <c r="G355" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -8005,7 +8007,7 @@
         <v>252</v>
       </c>
       <c r="G356" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -8025,7 +8027,7 @@
         <v>720</v>
       </c>
       <c r="G357" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -8045,7 +8047,7 @@
         <v>340</v>
       </c>
       <c r="G358" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -8065,7 +8067,7 @@
         <v>140</v>
       </c>
       <c r="G359" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -8085,7 +8087,7 @@
         <v>240</v>
       </c>
       <c r="G360" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -8105,7 +8107,7 @@
         <v>720</v>
       </c>
       <c r="G361" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -8125,7 +8127,7 @@
         <v>321</v>
       </c>
       <c r="G362" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -8145,7 +8147,7 @@
         <v>147</v>
       </c>
       <c r="G363" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -8165,7 +8167,7 @@
         <v>276</v>
       </c>
       <c r="G364" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -8185,7 +8187,7 @@
         <v>744</v>
       </c>
       <c r="G365" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -8205,7 +8207,7 @@
         <v>334</v>
       </c>
       <c r="G366" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -8225,7 +8227,7 @@
         <v>146</v>
       </c>
       <c r="G367" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -8245,7 +8247,7 @@
         <v>264</v>
       </c>
       <c r="G368" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -8265,7 +8267,7 @@
         <v>744</v>
       </c>
       <c r="G369" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -8285,7 +8287,7 @@
         <v>347</v>
       </c>
       <c r="G370" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -8305,7 +8307,7 @@
         <v>145</v>
       </c>
       <c r="G371" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -8325,7 +8327,7 @@
         <v>252</v>
       </c>
       <c r="G372" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -8345,7 +8347,7 @@
         <v>744</v>
       </c>
       <c r="G373" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -8365,7 +8367,7 @@
         <v>347</v>
       </c>
       <c r="G374" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -8385,7 +8387,7 @@
         <v>145</v>
       </c>
       <c r="G375" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -8405,7 +8407,7 @@
         <v>252</v>
       </c>
       <c r="G376" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -8425,7 +8427,7 @@
         <v>744</v>
       </c>
       <c r="G377" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -8445,7 +8447,7 @@
         <v>321</v>
       </c>
       <c r="G378" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -8465,7 +8467,7 @@
         <v>147</v>
       </c>
       <c r="G379" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -8485,7 +8487,7 @@
         <v>276</v>
       </c>
       <c r="G380" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -8505,7 +8507,7 @@
         <v>744</v>
       </c>
       <c r="G381" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -8525,7 +8527,7 @@
         <v>347</v>
       </c>
       <c r="G382" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -8545,7 +8547,7 @@
         <v>145</v>
       </c>
       <c r="G383" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -8565,7 +8567,7 @@
         <v>252</v>
       </c>
       <c r="G384" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -8585,7 +8587,7 @@
         <v>744</v>
       </c>
       <c r="G385" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -8605,7 +8607,7 @@
         <v>334</v>
       </c>
       <c r="G386" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -8625,7 +8627,7 @@
         <v>146</v>
       </c>
       <c r="G387" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -8645,7 +8647,7 @@
         <v>264</v>
       </c>
       <c r="G388" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -8665,7 +8667,7 @@
         <v>744</v>
       </c>
       <c r="G389" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -8685,7 +8687,7 @@
         <v>321</v>
       </c>
       <c r="G390" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -8705,7 +8707,7 @@
         <v>147</v>
       </c>
       <c r="G391" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -8725,7 +8727,7 @@
         <v>276</v>
       </c>
       <c r="G392" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -8745,7 +8747,7 @@
         <v>744</v>
       </c>
       <c r="G393" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -8765,7 +8767,7 @@
         <v>321</v>
       </c>
       <c r="G394" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -8785,7 +8787,7 @@
         <v>147</v>
       </c>
       <c r="G395" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -8805,7 +8807,7 @@
         <v>276</v>
       </c>
       <c r="G396" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -8825,7 +8827,7 @@
         <v>744</v>
       </c>
       <c r="G397" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -8845,7 +8847,7 @@
         <v>334</v>
       </c>
       <c r="G398" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -8865,7 +8867,7 @@
         <v>146</v>
       </c>
       <c r="G399" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -8885,7 +8887,7 @@
         <v>264</v>
       </c>
       <c r="G400" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -8905,7 +8907,7 @@
         <v>744</v>
       </c>
       <c r="G401" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -8925,7 +8927,7 @@
         <v>348</v>
       </c>
       <c r="G402" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -8945,7 +8947,7 @@
         <v>162</v>
       </c>
       <c r="G403" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -8965,7 +8967,7 @@
         <v>210</v>
       </c>
       <c r="G404" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -8985,7 +8987,7 @@
         <v>720</v>
       </c>
       <c r="G405" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -9005,7 +9007,7 @@
         <v>348</v>
       </c>
       <c r="G406" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -9025,7 +9027,7 @@
         <v>162</v>
       </c>
       <c r="G407" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -9045,7 +9047,7 @@
         <v>210</v>
       </c>
       <c r="G408" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -9065,7 +9067,7 @@
         <v>720</v>
       </c>
       <c r="G409" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -9085,7 +9087,7 @@
         <v>348</v>
       </c>
       <c r="G410" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -9105,7 +9107,7 @@
         <v>162</v>
       </c>
       <c r="G411" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -9125,7 +9127,7 @@
         <v>210</v>
       </c>
       <c r="G412" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -9145,7 +9147,7 @@
         <v>720</v>
       </c>
       <c r="G413" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -9165,7 +9167,7 @@
         <v>360</v>
       </c>
       <c r="G414" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -9185,7 +9187,7 @@
         <v>160</v>
       </c>
       <c r="G415" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -9205,7 +9207,7 @@
         <v>200</v>
       </c>
       <c r="G416" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -9225,7 +9227,7 @@
         <v>720</v>
       </c>
       <c r="G417" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -9245,7 +9247,7 @@
         <v>348</v>
       </c>
       <c r="G418" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -9265,7 +9267,7 @@
         <v>162</v>
       </c>
       <c r="G419" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -9285,7 +9287,7 @@
         <v>210</v>
       </c>
       <c r="G420" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -9305,7 +9307,7 @@
         <v>720</v>
       </c>
       <c r="G421" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -9325,7 +9327,7 @@
         <v>368</v>
       </c>
       <c r="G422" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -9345,7 +9347,7 @@
         <v>166</v>
       </c>
       <c r="G423" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -9365,7 +9367,7 @@
         <v>210</v>
       </c>
       <c r="G424" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -9385,7 +9387,7 @@
         <v>744</v>
       </c>
       <c r="G425" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -9405,7 +9407,7 @@
         <v>380</v>
       </c>
       <c r="G426" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -9425,7 +9427,7 @@
         <v>164</v>
       </c>
       <c r="G427" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -9445,7 +9447,7 @@
         <v>200</v>
       </c>
       <c r="G428" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -9465,7 +9467,7 @@
         <v>744</v>
       </c>
       <c r="G429" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -9485,7 +9487,7 @@
         <v>380</v>
       </c>
       <c r="G430" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -9505,7 +9507,7 @@
         <v>164</v>
       </c>
       <c r="G431" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -9525,7 +9527,7 @@
         <v>200</v>
       </c>
       <c r="G432" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -9545,7 +9547,7 @@
         <v>744</v>
       </c>
       <c r="G433" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -9565,7 +9567,7 @@
         <v>368</v>
       </c>
       <c r="G434" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -9585,7 +9587,7 @@
         <v>166</v>
       </c>
       <c r="G435" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -9605,7 +9607,7 @@
         <v>210</v>
       </c>
       <c r="G436" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -9625,7 +9627,7 @@
         <v>744</v>
       </c>
       <c r="G437" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -9645,7 +9647,7 @@
         <v>344</v>
       </c>
       <c r="G438" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -9665,7 +9667,7 @@
         <v>170</v>
       </c>
       <c r="G439" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -9685,7 +9687,7 @@
         <v>230</v>
       </c>
       <c r="G440" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -9705,7 +9707,7 @@
         <v>744</v>
       </c>
       <c r="G441" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -9725,7 +9727,7 @@
         <v>370</v>
       </c>
       <c r="G442" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -9745,7 +9747,7 @@
         <v>190</v>
       </c>
       <c r="G443" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -9765,7 +9767,7 @@
         <v>160</v>
       </c>
       <c r="G444" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -9785,7 +9787,7 @@
         <v>720</v>
       </c>
       <c r="G445" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -9805,7 +9807,7 @@
         <v>370</v>
       </c>
       <c r="G446" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -9825,7 +9827,7 @@
         <v>190</v>
       </c>
       <c r="G447" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -9845,7 +9847,7 @@
         <v>160</v>
       </c>
       <c r="G448" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -9865,7 +9867,7 @@
         <v>720</v>
       </c>
       <c r="G449" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -9885,7 +9887,7 @@
         <v>370</v>
       </c>
       <c r="G450" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -9905,7 +9907,7 @@
         <v>190</v>
       </c>
       <c r="G451" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -9925,7 +9927,7 @@
         <v>160</v>
       </c>
       <c r="G452" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -9945,7 +9947,7 @@
         <v>720</v>
       </c>
       <c r="G453" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -9965,7 +9967,7 @@
         <v>370</v>
       </c>
       <c r="G454" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -9985,7 +9987,7 @@
         <v>190</v>
       </c>
       <c r="G455" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -10005,7 +10007,7 @@
         <v>160</v>
       </c>
       <c r="G456" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -10025,7 +10027,7 @@
         <v>720</v>
       </c>
       <c r="G457" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -10045,7 +10047,7 @@
         <v>370</v>
       </c>
       <c r="G458" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -10065,7 +10067,7 @@
         <v>190</v>
       </c>
       <c r="G459" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -10085,7 +10087,7 @@
         <v>160</v>
       </c>
       <c r="G460" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -10105,7 +10107,7 @@
         <v>720</v>
       </c>
       <c r="G461" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -10125,7 +10127,7 @@
         <v>365</v>
       </c>
       <c r="G462" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -10145,7 +10147,7 @@
         <v>203</v>
       </c>
       <c r="G463" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -10165,7 +10167,7 @@
         <v>176</v>
       </c>
       <c r="G464" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -10185,7 +10187,7 @@
         <v>744</v>
       </c>
       <c r="G465" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -10205,7 +10207,7 @@
         <v>352</v>
       </c>
       <c r="G466" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -10225,7 +10227,7 @@
         <v>208</v>
       </c>
       <c r="G467" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -10245,7 +10247,7 @@
         <v>184</v>
       </c>
       <c r="G468" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -10265,7 +10267,7 @@
         <v>744</v>
       </c>
       <c r="G469" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -10285,7 +10287,7 @@
         <v>365</v>
       </c>
       <c r="G470" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -10305,7 +10307,7 @@
         <v>203</v>
       </c>
       <c r="G471" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -10325,7 +10327,7 @@
         <v>176</v>
       </c>
       <c r="G472" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -10345,7 +10347,7 @@
         <v>744</v>
       </c>
       <c r="G473" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -10365,7 +10367,7 @@
         <v>391</v>
       </c>
       <c r="G474" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -10385,7 +10387,7 @@
         <v>193</v>
       </c>
       <c r="G475" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -10405,7 +10407,7 @@
         <v>160</v>
       </c>
       <c r="G476" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -10425,7 +10427,7 @@
         <v>744</v>
       </c>
       <c r="G477" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -10445,7 +10447,7 @@
         <v>378</v>
       </c>
       <c r="G478" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -10465,7 +10467,7 @@
         <v>198</v>
       </c>
       <c r="G479" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -10485,7 +10487,7 @@
         <v>168</v>
       </c>
       <c r="G480" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -10505,7 +10507,7 @@
         <v>744</v>
       </c>
       <c r="G481" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -10519,13 +10521,13 @@
         <v>8</v>
       </c>
       <c r="E482">
-        <v>37493.923600000002</v>
+        <v>36352.424500000001</v>
       </c>
       <c r="F482">
         <v>365</v>
       </c>
       <c r="G482" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -10539,13 +10541,13 @@
         <v>9</v>
       </c>
       <c r="E483">
-        <v>44871.939836453203</v>
+        <v>43505.817701970402</v>
       </c>
       <c r="F483">
         <v>203</v>
       </c>
       <c r="G483" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -10559,13 +10561,13 @@
         <v>10</v>
       </c>
       <c r="E484">
-        <v>48353.739200000004</v>
+        <v>46881.614000000001</v>
       </c>
       <c r="F484">
         <v>176</v>
       </c>
       <c r="G484" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -10579,13 +10581,13 @@
         <v>11</v>
       </c>
       <c r="E485">
-        <v>42076</v>
+        <v>40795</v>
       </c>
       <c r="F485">
         <v>744</v>
       </c>
       <c r="G485" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -10605,7 +10607,7 @@
         <v>391</v>
       </c>
       <c r="G486" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -10625,7 +10627,7 @@
         <v>193</v>
       </c>
       <c r="G487" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -10645,7 +10647,7 @@
         <v>160</v>
       </c>
       <c r="G488" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -10665,7 +10667,7 @@
         <v>744</v>
       </c>
       <c r="G489" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -10685,7 +10687,7 @@
         <v>378</v>
       </c>
       <c r="G490" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -10705,7 +10707,7 @@
         <v>198</v>
       </c>
       <c r="G491" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -10725,7 +10727,7 @@
         <v>168</v>
       </c>
       <c r="G492" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -10745,7 +10747,7 @@
         <v>744</v>
       </c>
       <c r="G493" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -10765,7 +10767,7 @@
         <v>365</v>
       </c>
       <c r="G494" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -10785,7 +10787,7 @@
         <v>203</v>
       </c>
       <c r="G495" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -10805,7 +10807,7 @@
         <v>176</v>
       </c>
       <c r="G496" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
@@ -10825,7 +10827,7 @@
         <v>744</v>
       </c>
       <c r="G497" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -10845,7 +10847,7 @@
         <v>365</v>
       </c>
       <c r="G498" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -10865,7 +10867,7 @@
         <v>203</v>
       </c>
       <c r="G499" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -10885,7 +10887,7 @@
         <v>176</v>
       </c>
       <c r="G500" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -10905,7 +10907,7 @@
         <v>744</v>
       </c>
       <c r="G501" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -10919,13 +10921,13 @@
         <v>8</v>
       </c>
       <c r="E502">
-        <v>38350.885999999999</v>
+        <v>37273.286</v>
       </c>
       <c r="F502">
         <v>362</v>
       </c>
       <c r="G502" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -10939,13 +10941,13 @@
         <v>9</v>
       </c>
       <c r="E503">
-        <v>45817.9468307692</v>
+        <v>44530.534083516497</v>
       </c>
       <c r="F503">
         <v>182</v>
       </c>
       <c r="G503" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -10959,13 +10961,13 @@
         <v>10</v>
       </c>
       <c r="E504">
-        <v>49356.479899999998</v>
+        <v>47969.639900000002</v>
       </c>
       <c r="F504">
         <v>152</v>
       </c>
       <c r="G504" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
@@ -10979,13 +10981,13 @@
         <v>11</v>
       </c>
       <c r="E505">
-        <v>42707</v>
+        <v>41507</v>
       </c>
       <c r="F505">
         <v>696</v>
       </c>
       <c r="G505" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -11005,7 +11007,7 @@
         <v>341</v>
       </c>
       <c r="G506" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -11025,7 +11027,7 @@
         <v>179</v>
       </c>
       <c r="G507" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
@@ -11045,7 +11047,7 @@
         <v>152</v>
       </c>
       <c r="G508" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
@@ -11065,7 +11067,7 @@
         <v>672</v>
       </c>
       <c r="G509" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -11085,7 +11087,7 @@
         <v>328</v>
       </c>
       <c r="G510" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -11105,7 +11107,7 @@
         <v>184</v>
       </c>
       <c r="G511" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -11125,7 +11127,7 @@
         <v>160</v>
       </c>
       <c r="G512" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -11145,7 +11147,7 @@
         <v>672</v>
       </c>
       <c r="G513" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -11165,7 +11167,7 @@
         <v>341</v>
       </c>
       <c r="G514" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -11185,7 +11187,7 @@
         <v>179</v>
       </c>
       <c r="G515" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -11205,7 +11207,7 @@
         <v>152</v>
       </c>
       <c r="G516" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -11225,7 +11227,7 @@
         <v>672</v>
       </c>
       <c r="G517" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -11245,7 +11247,7 @@
         <v>349</v>
       </c>
       <c r="G518" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
@@ -11265,7 +11267,7 @@
         <v>187</v>
       </c>
       <c r="G519" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -11285,7 +11287,7 @@
         <v>160</v>
       </c>
       <c r="G520" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
@@ -11305,7 +11307,7 @@
         <v>696</v>
       </c>
       <c r="G521" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -11319,13 +11321,13 @@
         <v>8</v>
       </c>
       <c r="E522">
-        <v>38453.160199999998</v>
+        <v>37834.098400000003</v>
       </c>
       <c r="F522">
         <v>365</v>
       </c>
       <c r="G522" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -11339,13 +11341,13 @@
         <v>9</v>
       </c>
       <c r="E523">
-        <v>47279.487017733998</v>
+        <v>46518.329178325097</v>
       </c>
       <c r="F523">
         <v>203</v>
       </c>
       <c r="G523" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -11359,13 +11361,13 @@
         <v>10</v>
       </c>
       <c r="E524">
-        <v>50313.117400000003</v>
+        <v>49503.120799999997</v>
       </c>
       <c r="F524">
         <v>176</v>
       </c>
       <c r="G524" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -11379,13 +11381,13 @@
         <v>11</v>
       </c>
       <c r="E525">
-        <v>43667</v>
+        <v>42964</v>
       </c>
       <c r="F525">
         <v>744</v>
       </c>
       <c r="G525" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -11405,7 +11407,7 @@
         <v>352</v>
       </c>
       <c r="G526" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -11425,7 +11427,7 @@
         <v>208</v>
       </c>
       <c r="G527" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -11445,7 +11447,7 @@
         <v>184</v>
       </c>
       <c r="G528" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
@@ -11465,7 +11467,7 @@
         <v>744</v>
       </c>
       <c r="G529" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
@@ -11485,7 +11487,7 @@
         <v>365</v>
       </c>
       <c r="G530" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -11505,7 +11507,7 @@
         <v>203</v>
       </c>
       <c r="G531" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -11525,7 +11527,7 @@
         <v>176</v>
       </c>
       <c r="G532" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -11545,7 +11547,7 @@
         <v>744</v>
       </c>
       <c r="G533" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -11565,7 +11567,7 @@
         <v>352</v>
       </c>
       <c r="G534" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -11585,7 +11587,7 @@
         <v>208</v>
       </c>
       <c r="G535" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -11605,7 +11607,7 @@
         <v>184</v>
       </c>
       <c r="G536" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -11625,7 +11627,7 @@
         <v>744</v>
       </c>
       <c r="G537" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -11645,7 +11647,7 @@
         <v>391</v>
       </c>
       <c r="G538" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -11665,7 +11667,7 @@
         <v>193</v>
       </c>
       <c r="G539" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
@@ -11685,7 +11687,7 @@
         <v>160</v>
       </c>
       <c r="G540" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -11705,7 +11707,7 @@
         <v>744</v>
       </c>
       <c r="G541" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -11725,7 +11727,7 @@
         <v>360</v>
       </c>
       <c r="G542" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -11745,7 +11747,7 @@
         <v>160</v>
       </c>
       <c r="G543" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -11765,7 +11767,7 @@
         <v>200</v>
       </c>
       <c r="G544" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
@@ -11785,7 +11787,7 @@
         <v>720</v>
       </c>
       <c r="G545" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
@@ -11805,7 +11807,7 @@
         <v>360</v>
       </c>
       <c r="G546" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
@@ -11825,7 +11827,7 @@
         <v>160</v>
       </c>
       <c r="G547" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
@@ -11845,7 +11847,7 @@
         <v>200</v>
       </c>
       <c r="G548" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
@@ -11865,7 +11867,7 @@
         <v>720</v>
       </c>
       <c r="G549" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -11885,7 +11887,7 @@
         <v>372</v>
       </c>
       <c r="G550" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
@@ -11905,7 +11907,7 @@
         <v>158</v>
       </c>
       <c r="G551" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -11925,7 +11927,7 @@
         <v>190</v>
       </c>
       <c r="G552" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
@@ -11945,7 +11947,7 @@
         <v>720</v>
       </c>
       <c r="G553" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -11965,7 +11967,7 @@
         <v>384</v>
       </c>
       <c r="G554" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
@@ -11985,7 +11987,7 @@
         <v>156</v>
       </c>
       <c r="G555" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -12005,7 +12007,7 @@
         <v>180</v>
       </c>
       <c r="G556" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
@@ -12025,7 +12027,7 @@
         <v>720</v>
       </c>
       <c r="G557" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
@@ -12045,7 +12047,7 @@
         <v>336</v>
       </c>
       <c r="G558" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
@@ -12065,7 +12067,7 @@
         <v>164</v>
       </c>
       <c r="G559" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
@@ -12085,7 +12087,7 @@
         <v>220</v>
       </c>
       <c r="G560" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
@@ -12105,7 +12107,7 @@
         <v>720</v>
       </c>
       <c r="G561" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
@@ -12125,7 +12127,7 @@
         <v>360</v>
       </c>
       <c r="G562" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -12145,7 +12147,7 @@
         <v>144</v>
       </c>
       <c r="G563" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
@@ -12165,7 +12167,7 @@
         <v>240</v>
       </c>
       <c r="G564" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
@@ -12185,7 +12187,7 @@
         <v>744</v>
       </c>
       <c r="G565" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -12205,7 +12207,7 @@
         <v>347</v>
       </c>
       <c r="G566" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -12225,7 +12227,7 @@
         <v>145</v>
       </c>
       <c r="G567" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -12245,7 +12247,7 @@
         <v>252</v>
       </c>
       <c r="G568" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
@@ -12265,7 +12267,7 @@
         <v>744</v>
       </c>
       <c r="G569" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
@@ -12285,7 +12287,7 @@
         <v>334</v>
       </c>
       <c r="G570" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -12305,7 +12307,7 @@
         <v>146</v>
       </c>
       <c r="G571" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
@@ -12325,7 +12327,7 @@
         <v>264</v>
       </c>
       <c r="G572" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
@@ -12345,7 +12347,7 @@
         <v>744</v>
       </c>
       <c r="G573" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -12365,7 +12367,7 @@
         <v>334</v>
       </c>
       <c r="G574" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
@@ -12385,7 +12387,7 @@
         <v>146</v>
       </c>
       <c r="G575" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
@@ -12405,7 +12407,7 @@
         <v>264</v>
       </c>
       <c r="G576" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
@@ -12425,7 +12427,7 @@
         <v>744</v>
       </c>
       <c r="G577" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -12445,7 +12447,7 @@
         <v>347</v>
       </c>
       <c r="G578" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
@@ -12465,7 +12467,7 @@
         <v>145</v>
       </c>
       <c r="G579" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
@@ -12485,7 +12487,7 @@
         <v>252</v>
       </c>
       <c r="G580" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
@@ -12505,7 +12507,7 @@
         <v>744</v>
       </c>
       <c r="G581" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
@@ -12525,7 +12527,7 @@
         <v>327</v>
       </c>
       <c r="G582" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
@@ -12545,7 +12547,7 @@
         <v>141</v>
       </c>
       <c r="G583" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -12565,7 +12567,7 @@
         <v>252</v>
       </c>
       <c r="G584" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
@@ -12585,7 +12587,7 @@
         <v>720</v>
       </c>
       <c r="G585" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
@@ -12605,7 +12607,7 @@
         <v>327</v>
       </c>
       <c r="G586" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
@@ -12625,7 +12627,7 @@
         <v>141</v>
       </c>
       <c r="G587" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -12645,7 +12647,7 @@
         <v>252</v>
       </c>
       <c r="G588" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
@@ -12665,7 +12667,7 @@
         <v>720</v>
       </c>
       <c r="G589" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
@@ -12685,7 +12687,7 @@
         <v>327</v>
       </c>
       <c r="G590" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
@@ -12705,7 +12707,7 @@
         <v>141</v>
       </c>
       <c r="G591" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -12725,7 +12727,7 @@
         <v>252</v>
       </c>
       <c r="G592" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
@@ -12745,7 +12747,7 @@
         <v>720</v>
       </c>
       <c r="G593" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
@@ -12765,7 +12767,7 @@
         <v>327</v>
       </c>
       <c r="G594" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
@@ -12785,7 +12787,7 @@
         <v>141</v>
       </c>
       <c r="G595" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -12805,7 +12807,7 @@
         <v>252</v>
       </c>
       <c r="G596" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
@@ -12825,7 +12827,7 @@
         <v>720</v>
       </c>
       <c r="G597" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
@@ -12845,7 +12847,7 @@
         <v>340</v>
       </c>
       <c r="G598" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -12865,7 +12867,7 @@
         <v>140</v>
       </c>
       <c r="G599" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -12885,7 +12887,7 @@
         <v>240</v>
       </c>
       <c r="G600" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
@@ -12905,7 +12907,7 @@
         <v>720</v>
       </c>
       <c r="G601" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
@@ -12925,7 +12927,7 @@
         <v>321</v>
       </c>
       <c r="G602" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
@@ -12945,7 +12947,7 @@
         <v>147</v>
       </c>
       <c r="G603" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
@@ -12965,7 +12967,7 @@
         <v>276</v>
       </c>
       <c r="G604" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
@@ -12985,7 +12987,7 @@
         <v>744</v>
       </c>
       <c r="G605" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
@@ -13005,7 +13007,7 @@
         <v>334</v>
       </c>
       <c r="G606" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
@@ -13025,7 +13027,7 @@
         <v>146</v>
       </c>
       <c r="G607" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
@@ -13045,7 +13047,7 @@
         <v>264</v>
       </c>
       <c r="G608" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
@@ -13065,7 +13067,7 @@
         <v>744</v>
       </c>
       <c r="G609" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
@@ -13085,7 +13087,7 @@
         <v>347</v>
       </c>
       <c r="G610" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
@@ -13105,7 +13107,7 @@
         <v>145</v>
       </c>
       <c r="G611" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
@@ -13125,7 +13127,7 @@
         <v>252</v>
       </c>
       <c r="G612" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
@@ -13145,7 +13147,7 @@
         <v>744</v>
       </c>
       <c r="G613" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
@@ -13165,7 +13167,7 @@
         <v>347</v>
       </c>
       <c r="G614" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
@@ -13185,7 +13187,7 @@
         <v>145</v>
       </c>
       <c r="G615" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
@@ -13205,7 +13207,7 @@
         <v>252</v>
       </c>
       <c r="G616" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
@@ -13225,7 +13227,7 @@
         <v>744</v>
       </c>
       <c r="G617" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
@@ -13245,7 +13247,7 @@
         <v>321</v>
       </c>
       <c r="G618" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
@@ -13265,7 +13267,7 @@
         <v>147</v>
       </c>
       <c r="G619" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
@@ -13285,7 +13287,7 @@
         <v>276</v>
       </c>
       <c r="G620" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
@@ -13305,7 +13307,7 @@
         <v>744</v>
       </c>
       <c r="G621" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
@@ -13325,7 +13327,7 @@
         <v>347</v>
       </c>
       <c r="G622" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
@@ -13345,7 +13347,7 @@
         <v>145</v>
       </c>
       <c r="G623" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
@@ -13365,7 +13367,7 @@
         <v>252</v>
       </c>
       <c r="G624" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
@@ -13385,7 +13387,7 @@
         <v>744</v>
       </c>
       <c r="G625" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
@@ -13405,7 +13407,7 @@
         <v>334</v>
       </c>
       <c r="G626" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
@@ -13425,7 +13427,7 @@
         <v>146</v>
       </c>
       <c r="G627" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
@@ -13445,7 +13447,7 @@
         <v>264</v>
       </c>
       <c r="G628" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
@@ -13465,7 +13467,7 @@
         <v>744</v>
       </c>
       <c r="G629" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
@@ -13485,7 +13487,7 @@
         <v>321</v>
       </c>
       <c r="G630" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
@@ -13505,7 +13507,7 @@
         <v>147</v>
       </c>
       <c r="G631" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
@@ -13525,7 +13527,7 @@
         <v>276</v>
       </c>
       <c r="G632" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
@@ -13545,7 +13547,7 @@
         <v>744</v>
       </c>
       <c r="G633" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
@@ -13565,7 +13567,7 @@
         <v>321</v>
       </c>
       <c r="G634" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
@@ -13585,7 +13587,7 @@
         <v>147</v>
       </c>
       <c r="G635" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
@@ -13605,7 +13607,7 @@
         <v>276</v>
       </c>
       <c r="G636" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
@@ -13625,7 +13627,7 @@
         <v>744</v>
       </c>
       <c r="G637" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
@@ -13645,7 +13647,7 @@
         <v>334</v>
       </c>
       <c r="G638" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
@@ -13665,7 +13667,7 @@
         <v>146</v>
       </c>
       <c r="G639" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
@@ -13685,7 +13687,7 @@
         <v>264</v>
       </c>
       <c r="G640" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
@@ -13705,7 +13707,7 @@
         <v>744</v>
       </c>
       <c r="G641" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
@@ -13725,7 +13727,7 @@
         <v>348</v>
       </c>
       <c r="G642" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
@@ -13745,7 +13747,7 @@
         <v>162</v>
       </c>
       <c r="G643" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
@@ -13765,7 +13767,7 @@
         <v>210</v>
       </c>
       <c r="G644" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
@@ -13785,7 +13787,7 @@
         <v>720</v>
       </c>
       <c r="G645" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
@@ -13805,7 +13807,7 @@
         <v>348</v>
       </c>
       <c r="G646" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
@@ -13825,7 +13827,7 @@
         <v>162</v>
       </c>
       <c r="G647" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
@@ -13845,7 +13847,7 @@
         <v>210</v>
       </c>
       <c r="G648" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
@@ -13865,7 +13867,7 @@
         <v>720</v>
       </c>
       <c r="G649" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
@@ -13885,7 +13887,7 @@
         <v>348</v>
       </c>
       <c r="G650" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
@@ -13905,7 +13907,7 @@
         <v>162</v>
       </c>
       <c r="G651" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
@@ -13925,7 +13927,7 @@
         <v>210</v>
       </c>
       <c r="G652" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
@@ -13945,7 +13947,7 @@
         <v>720</v>
       </c>
       <c r="G653" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
@@ -13965,7 +13967,7 @@
         <v>360</v>
       </c>
       <c r="G654" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
@@ -13985,7 +13987,7 @@
         <v>160</v>
       </c>
       <c r="G655" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
@@ -14005,7 +14007,7 @@
         <v>200</v>
       </c>
       <c r="G656" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
@@ -14025,7 +14027,7 @@
         <v>720</v>
       </c>
       <c r="G657" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
@@ -14045,7 +14047,7 @@
         <v>348</v>
       </c>
       <c r="G658" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
@@ -14065,7 +14067,7 @@
         <v>162</v>
       </c>
       <c r="G659" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
@@ -14085,7 +14087,7 @@
         <v>210</v>
       </c>
       <c r="G660" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
@@ -14105,7 +14107,7 @@
         <v>720</v>
       </c>
       <c r="G661" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
@@ -14125,7 +14127,7 @@
         <v>368</v>
       </c>
       <c r="G662" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
@@ -14145,7 +14147,7 @@
         <v>166</v>
       </c>
       <c r="G663" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
@@ -14165,7 +14167,7 @@
         <v>210</v>
       </c>
       <c r="G664" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
@@ -14185,7 +14187,7 @@
         <v>744</v>
       </c>
       <c r="G665" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
@@ -14205,7 +14207,7 @@
         <v>380</v>
       </c>
       <c r="G666" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
@@ -14225,7 +14227,7 @@
         <v>164</v>
       </c>
       <c r="G667" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
@@ -14245,7 +14247,7 @@
         <v>200</v>
       </c>
       <c r="G668" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
@@ -14265,7 +14267,7 @@
         <v>744</v>
       </c>
       <c r="G669" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
@@ -14285,7 +14287,7 @@
         <v>380</v>
       </c>
       <c r="G670" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
@@ -14305,7 +14307,7 @@
         <v>164</v>
       </c>
       <c r="G671" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
@@ -14325,7 +14327,7 @@
         <v>200</v>
       </c>
       <c r="G672" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
@@ -14345,7 +14347,7 @@
         <v>744</v>
       </c>
       <c r="G673" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
@@ -14365,7 +14367,7 @@
         <v>368</v>
       </c>
       <c r="G674" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
@@ -14385,7 +14387,7 @@
         <v>166</v>
       </c>
       <c r="G675" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
@@ -14405,7 +14407,7 @@
         <v>210</v>
       </c>
       <c r="G676" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
@@ -14425,7 +14427,7 @@
         <v>744</v>
       </c>
       <c r="G677" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
@@ -14445,7 +14447,7 @@
         <v>344</v>
       </c>
       <c r="G678" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
@@ -14465,7 +14467,7 @@
         <v>170</v>
       </c>
       <c r="G679" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
@@ -14485,7 +14487,7 @@
         <v>230</v>
       </c>
       <c r="G680" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
@@ -14505,7 +14507,7 @@
         <v>744</v>
       </c>
       <c r="G681" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
@@ -14525,7 +14527,7 @@
         <v>370</v>
       </c>
       <c r="G682" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
@@ -14545,7 +14547,7 @@
         <v>190</v>
       </c>
       <c r="G683" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
@@ -14565,7 +14567,7 @@
         <v>160</v>
       </c>
       <c r="G684" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
@@ -14585,7 +14587,7 @@
         <v>720</v>
       </c>
       <c r="G685" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
@@ -14605,7 +14607,7 @@
         <v>370</v>
       </c>
       <c r="G686" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
@@ -14625,7 +14627,7 @@
         <v>190</v>
       </c>
       <c r="G687" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
@@ -14645,7 +14647,7 @@
         <v>160</v>
       </c>
       <c r="G688" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
@@ -14665,7 +14667,7 @@
         <v>720</v>
       </c>
       <c r="G689" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
@@ -14685,7 +14687,7 @@
         <v>370</v>
       </c>
       <c r="G690" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
@@ -14705,7 +14707,7 @@
         <v>190</v>
       </c>
       <c r="G691" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
@@ -14725,7 +14727,7 @@
         <v>160</v>
       </c>
       <c r="G692" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
@@ -14745,7 +14747,7 @@
         <v>720</v>
       </c>
       <c r="G693" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
@@ -14765,7 +14767,7 @@
         <v>370</v>
       </c>
       <c r="G694" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
@@ -14785,7 +14787,7 @@
         <v>190</v>
       </c>
       <c r="G695" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
@@ -14805,7 +14807,7 @@
         <v>160</v>
       </c>
       <c r="G696" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
@@ -14825,7 +14827,7 @@
         <v>720</v>
       </c>
       <c r="G697" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
@@ -14845,7 +14847,7 @@
         <v>370</v>
       </c>
       <c r="G698" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
@@ -14865,7 +14867,7 @@
         <v>190</v>
       </c>
       <c r="G699" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
@@ -14885,7 +14887,7 @@
         <v>160</v>
       </c>
       <c r="G700" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
@@ -14905,7 +14907,7 @@
         <v>720</v>
       </c>
       <c r="G701" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
@@ -14925,7 +14927,7 @@
         <v>365</v>
       </c>
       <c r="G702" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
@@ -14945,7 +14947,7 @@
         <v>203</v>
       </c>
       <c r="G703" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
@@ -14965,7 +14967,7 @@
         <v>176</v>
       </c>
       <c r="G704" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
@@ -14985,7 +14987,7 @@
         <v>744</v>
       </c>
       <c r="G705" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
@@ -15005,7 +15007,7 @@
         <v>352</v>
       </c>
       <c r="G706" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
@@ -15025,7 +15027,7 @@
         <v>208</v>
       </c>
       <c r="G707" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
@@ -15045,7 +15047,7 @@
         <v>184</v>
       </c>
       <c r="G708" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
@@ -15065,7 +15067,7 @@
         <v>744</v>
       </c>
       <c r="G709" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
@@ -15085,7 +15087,7 @@
         <v>365</v>
       </c>
       <c r="G710" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
@@ -15105,7 +15107,7 @@
         <v>203</v>
       </c>
       <c r="G711" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
@@ -15125,7 +15127,7 @@
         <v>176</v>
       </c>
       <c r="G712" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
@@ -15145,7 +15147,7 @@
         <v>744</v>
       </c>
       <c r="G713" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
@@ -15165,7 +15167,7 @@
         <v>391</v>
       </c>
       <c r="G714" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
@@ -15185,7 +15187,7 @@
         <v>193</v>
       </c>
       <c r="G715" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
@@ -15205,7 +15207,7 @@
         <v>160</v>
       </c>
       <c r="G716" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
@@ -15225,7 +15227,7 @@
         <v>744</v>
       </c>
       <c r="G717" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
@@ -15245,7 +15247,7 @@
         <v>378</v>
       </c>
       <c r="G718" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
@@ -15265,7 +15267,7 @@
         <v>198</v>
       </c>
       <c r="G719" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
@@ -15285,7 +15287,7 @@
         <v>168</v>
       </c>
       <c r="G720" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
@@ -15305,7 +15307,7 @@
         <v>744</v>
       </c>
       <c r="G721" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
@@ -15319,13 +15321,13 @@
         <v>8</v>
       </c>
       <c r="E722">
-        <v>11066.052100000001</v>
+        <v>11091.7891</v>
       </c>
       <c r="F722">
         <v>365</v>
       </c>
       <c r="G722" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
@@ -15339,13 +15341,13 @@
         <v>9</v>
       </c>
       <c r="E723">
-        <v>13732.116545320199</v>
+        <v>13764.0541758621</v>
       </c>
       <c r="F723">
         <v>203</v>
       </c>
       <c r="G723" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
@@ -15359,13 +15361,13 @@
         <v>10</v>
       </c>
       <c r="E724">
-        <v>15739.3598</v>
+        <v>15775.9658</v>
       </c>
       <c r="F724">
         <v>176</v>
       </c>
       <c r="G724" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
@@ -15379,13 +15381,13 @@
         <v>11</v>
       </c>
       <c r="E725">
-        <v>12899</v>
+        <v>12929</v>
       </c>
       <c r="F725">
         <v>744</v>
       </c>
       <c r="G725" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
@@ -15405,7 +15407,7 @@
         <v>391</v>
       </c>
       <c r="G726" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
@@ -15425,7 +15427,7 @@
         <v>193</v>
       </c>
       <c r="G727" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
@@ -15445,7 +15447,7 @@
         <v>160</v>
       </c>
       <c r="G728" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
@@ -15465,7 +15467,7 @@
         <v>744</v>
       </c>
       <c r="G729" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
@@ -15485,7 +15487,7 @@
         <v>378</v>
       </c>
       <c r="G730" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
@@ -15505,7 +15507,7 @@
         <v>198</v>
       </c>
       <c r="G731" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
@@ -15525,7 +15527,7 @@
         <v>168</v>
       </c>
       <c r="G732" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
@@ -15545,7 +15547,7 @@
         <v>744</v>
       </c>
       <c r="G733" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
@@ -15565,7 +15567,7 @@
         <v>365</v>
       </c>
       <c r="G734" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
@@ -15585,7 +15587,7 @@
         <v>203</v>
       </c>
       <c r="G735" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
@@ -15605,7 +15607,7 @@
         <v>176</v>
       </c>
       <c r="G736" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
@@ -15625,7 +15627,7 @@
         <v>744</v>
       </c>
       <c r="G737" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
@@ -15645,7 +15647,7 @@
         <v>365</v>
       </c>
       <c r="G738" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
@@ -15665,7 +15667,7 @@
         <v>203</v>
       </c>
       <c r="G739" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
@@ -15685,7 +15687,7 @@
         <v>176</v>
       </c>
       <c r="G740" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
@@ -15705,7 +15707,7 @@
         <v>744</v>
       </c>
       <c r="G741" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
@@ -15719,13 +15721,13 @@
         <v>8</v>
       </c>
       <c r="E742">
-        <v>11070.265600000001</v>
+        <v>11417.9542</v>
       </c>
       <c r="F742">
         <v>362</v>
       </c>
       <c r="G742" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
@@ -15739,13 +15741,13 @@
         <v>9</v>
       </c>
       <c r="E743">
-        <v>13574.7684571429</v>
+        <v>14001.117057142899</v>
       </c>
       <c r="F743">
         <v>182</v>
       </c>
       <c r="G743" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
@@ -15759,13 +15761,13 @@
         <v>10</v>
       </c>
       <c r="E744">
-        <v>15552.236800000001</v>
+        <v>16040.6926</v>
       </c>
       <c r="F744">
         <v>152</v>
       </c>
       <c r="G744" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
@@ -15779,13 +15781,13 @@
         <v>11</v>
       </c>
       <c r="E745">
-        <v>12704</v>
+        <v>13103</v>
       </c>
       <c r="F745">
         <v>696</v>
       </c>
       <c r="G745" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
@@ -15805,7 +15807,7 @@
         <v>341</v>
       </c>
       <c r="G746" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
@@ -15825,7 +15827,7 @@
         <v>179</v>
       </c>
       <c r="G747" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
@@ -15845,7 +15847,7 @@
         <v>152</v>
       </c>
       <c r="G748" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
@@ -15865,7 +15867,7 @@
         <v>672</v>
       </c>
       <c r="G749" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
@@ -15885,7 +15887,7 @@
         <v>328</v>
       </c>
       <c r="G750" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
@@ -15905,7 +15907,7 @@
         <v>184</v>
       </c>
       <c r="G751" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
@@ -15925,7 +15927,7 @@
         <v>160</v>
       </c>
       <c r="G752" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
@@ -15945,7 +15947,7 @@
         <v>672</v>
       </c>
       <c r="G753" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
@@ -15965,7 +15967,7 @@
         <v>341</v>
       </c>
       <c r="G754" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
@@ -15985,7 +15987,7 @@
         <v>179</v>
       </c>
       <c r="G755" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
@@ -16005,7 +16007,7 @@
         <v>152</v>
       </c>
       <c r="G756" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
@@ -16025,7 +16027,7 @@
         <v>672</v>
       </c>
       <c r="G757" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
@@ -16045,7 +16047,7 @@
         <v>349</v>
       </c>
       <c r="G758" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
@@ -16065,7 +16067,7 @@
         <v>187</v>
       </c>
       <c r="G759" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
@@ -16085,7 +16087,7 @@
         <v>160</v>
       </c>
       <c r="G760" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
@@ -16105,7 +16107,7 @@
         <v>696</v>
       </c>
       <c r="G761" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
@@ -16125,7 +16127,7 @@
         <v>365</v>
       </c>
       <c r="G762" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
@@ -16145,7 +16147,7 @@
         <v>203</v>
       </c>
       <c r="G763" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">
@@ -16165,7 +16167,7 @@
         <v>176</v>
       </c>
       <c r="G764" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
@@ -16185,7 +16187,7 @@
         <v>744</v>
       </c>
       <c r="G765" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
@@ -16205,7 +16207,7 @@
         <v>352</v>
       </c>
       <c r="G766" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
@@ -16225,7 +16227,7 @@
         <v>208</v>
       </c>
       <c r="G767" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
@@ -16245,7 +16247,7 @@
         <v>184</v>
       </c>
       <c r="G768" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.25">
@@ -16265,7 +16267,7 @@
         <v>744</v>
       </c>
       <c r="G769" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
@@ -16285,7 +16287,7 @@
         <v>365</v>
       </c>
       <c r="G770" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
@@ -16305,7 +16307,7 @@
         <v>203</v>
       </c>
       <c r="G771" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
@@ -16325,7 +16327,7 @@
         <v>176</v>
       </c>
       <c r="G772" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
@@ -16345,7 +16347,7 @@
         <v>744</v>
       </c>
       <c r="G773" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.25">
@@ -16365,7 +16367,7 @@
         <v>352</v>
       </c>
       <c r="G774" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.25">
@@ -16385,7 +16387,7 @@
         <v>208</v>
       </c>
       <c r="G775" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.25">
@@ -16405,7 +16407,7 @@
         <v>184</v>
       </c>
       <c r="G776" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.25">
@@ -16425,7 +16427,7 @@
         <v>744</v>
       </c>
       <c r="G777" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.25">
@@ -16445,7 +16447,7 @@
         <v>391</v>
       </c>
       <c r="G778" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.25">
@@ -16465,7 +16467,7 @@
         <v>193</v>
       </c>
       <c r="G779" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.25">
@@ -16485,7 +16487,7 @@
         <v>160</v>
       </c>
       <c r="G780" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.25">
@@ -16505,7 +16507,7 @@
         <v>744</v>
       </c>
       <c r="G781" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.25">
@@ -16525,7 +16527,7 @@
         <v>360</v>
       </c>
       <c r="G782" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.25">
@@ -16545,7 +16547,7 @@
         <v>160</v>
       </c>
       <c r="G783" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.25">
@@ -16565,7 +16567,7 @@
         <v>200</v>
       </c>
       <c r="G784" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.25">
@@ -16585,7 +16587,7 @@
         <v>720</v>
       </c>
       <c r="G785" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.25">
@@ -16605,7 +16607,7 @@
         <v>360</v>
       </c>
       <c r="G786" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.25">
@@ -16625,7 +16627,7 @@
         <v>160</v>
       </c>
       <c r="G787" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.25">
@@ -16645,7 +16647,7 @@
         <v>200</v>
       </c>
       <c r="G788" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.25">
@@ -16665,7 +16667,7 @@
         <v>720</v>
       </c>
       <c r="G789" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.25">
@@ -16685,7 +16687,7 @@
         <v>372</v>
       </c>
       <c r="G790" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.25">
@@ -16705,7 +16707,7 @@
         <v>158</v>
       </c>
       <c r="G791" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.25">
@@ -16725,7 +16727,7 @@
         <v>190</v>
       </c>
       <c r="G792" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.25">
@@ -16745,7 +16747,7 @@
         <v>720</v>
       </c>
       <c r="G793" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.25">
@@ -16765,7 +16767,7 @@
         <v>384</v>
       </c>
       <c r="G794" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.25">
@@ -16785,7 +16787,7 @@
         <v>156</v>
       </c>
       <c r="G795" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.25">
@@ -16805,7 +16807,7 @@
         <v>180</v>
       </c>
       <c r="G796" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.25">
@@ -16825,7 +16827,7 @@
         <v>720</v>
       </c>
       <c r="G797" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.25">
@@ -16845,7 +16847,7 @@
         <v>336</v>
       </c>
       <c r="G798" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.25">
@@ -16865,7 +16867,7 @@
         <v>164</v>
       </c>
       <c r="G799" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.25">
@@ -16885,7 +16887,7 @@
         <v>220</v>
       </c>
       <c r="G800" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.25">
@@ -16905,7 +16907,7 @@
         <v>720</v>
       </c>
       <c r="G801" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.25">
@@ -16925,7 +16927,7 @@
         <v>360</v>
       </c>
       <c r="G802" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
@@ -16945,7 +16947,7 @@
         <v>144</v>
       </c>
       <c r="G803" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
@@ -16965,7 +16967,7 @@
         <v>240</v>
       </c>
       <c r="G804" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.25">
@@ -16985,7 +16987,7 @@
         <v>744</v>
       </c>
       <c r="G805" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.25">
@@ -17005,7 +17007,7 @@
         <v>347</v>
       </c>
       <c r="G806" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.25">
@@ -17025,7 +17027,7 @@
         <v>145</v>
       </c>
       <c r="G807" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
@@ -17045,7 +17047,7 @@
         <v>252</v>
       </c>
       <c r="G808" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.25">
@@ -17065,7 +17067,7 @@
         <v>744</v>
       </c>
       <c r="G809" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.25">
@@ -17085,7 +17087,7 @@
         <v>334</v>
       </c>
       <c r="G810" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.25">
@@ -17105,7 +17107,7 @@
         <v>146</v>
       </c>
       <c r="G811" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.25">
@@ -17125,7 +17127,7 @@
         <v>264</v>
       </c>
       <c r="G812" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.25">
@@ -17145,7 +17147,7 @@
         <v>744</v>
       </c>
       <c r="G813" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
@@ -17165,7 +17167,7 @@
         <v>334</v>
       </c>
       <c r="G814" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
@@ -17185,7 +17187,7 @@
         <v>146</v>
       </c>
       <c r="G815" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.25">
@@ -17205,7 +17207,7 @@
         <v>264</v>
       </c>
       <c r="G816" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.25">
@@ -17225,7 +17227,7 @@
         <v>744</v>
       </c>
       <c r="G817" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.25">
@@ -17245,7 +17247,7 @@
         <v>347</v>
       </c>
       <c r="G818" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.25">
@@ -17265,7 +17267,7 @@
         <v>145</v>
       </c>
       <c r="G819" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.25">
@@ -17285,7 +17287,7 @@
         <v>252</v>
       </c>
       <c r="G820" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.25">
@@ -17305,7 +17307,7 @@
         <v>744</v>
       </c>
       <c r="G821" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.25">
@@ -17325,7 +17327,7 @@
         <v>327</v>
       </c>
       <c r="G822" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.25">
@@ -17345,7 +17347,7 @@
         <v>141</v>
       </c>
       <c r="G823" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.25">
@@ -17365,7 +17367,7 @@
         <v>252</v>
       </c>
       <c r="G824" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.25">
@@ -17385,7 +17387,7 @@
         <v>720</v>
       </c>
       <c r="G825" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.25">
@@ -17405,7 +17407,7 @@
         <v>327</v>
       </c>
       <c r="G826" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.25">
@@ -17425,7 +17427,7 @@
         <v>141</v>
       </c>
       <c r="G827" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.25">
@@ -17445,7 +17447,7 @@
         <v>252</v>
       </c>
       <c r="G828" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.25">
@@ -17465,7 +17467,7 @@
         <v>720</v>
       </c>
       <c r="G829" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.25">
@@ -17485,7 +17487,7 @@
         <v>327</v>
       </c>
       <c r="G830" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.25">
@@ -17505,7 +17507,7 @@
         <v>141</v>
       </c>
       <c r="G831" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.25">
@@ -17525,7 +17527,7 @@
         <v>252</v>
       </c>
       <c r="G832" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.25">
@@ -17545,7 +17547,7 @@
         <v>720</v>
       </c>
       <c r="G833" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.25">
@@ -17565,7 +17567,7 @@
         <v>327</v>
       </c>
       <c r="G834" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.25">
@@ -17585,7 +17587,7 @@
         <v>141</v>
       </c>
       <c r="G835" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.25">
@@ -17605,7 +17607,7 @@
         <v>252</v>
       </c>
       <c r="G836" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.25">
@@ -17625,7 +17627,7 @@
         <v>720</v>
       </c>
       <c r="G837" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
@@ -17645,7 +17647,7 @@
         <v>340</v>
       </c>
       <c r="G838" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.25">
@@ -17665,7 +17667,7 @@
         <v>140</v>
       </c>
       <c r="G839" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.25">
@@ -17685,7 +17687,7 @@
         <v>240</v>
       </c>
       <c r="G840" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.25">
@@ -17705,7 +17707,7 @@
         <v>720</v>
       </c>
       <c r="G841" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.25">
@@ -17725,7 +17727,7 @@
         <v>321</v>
       </c>
       <c r="G842" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.25">
@@ -17745,7 +17747,7 @@
         <v>147</v>
       </c>
       <c r="G843" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.25">
@@ -17765,7 +17767,7 @@
         <v>276</v>
       </c>
       <c r="G844" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.25">
@@ -17785,7 +17787,7 @@
         <v>744</v>
       </c>
       <c r="G845" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
@@ -17805,7 +17807,7 @@
         <v>334</v>
       </c>
       <c r="G846" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
@@ -17825,7 +17827,7 @@
         <v>146</v>
       </c>
       <c r="G847" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.25">
@@ -17845,7 +17847,7 @@
         <v>264</v>
       </c>
       <c r="G848" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.25">
@@ -17865,7 +17867,7 @@
         <v>744</v>
       </c>
       <c r="G849" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.25">
@@ -17885,7 +17887,7 @@
         <v>347</v>
       </c>
       <c r="G850" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
@@ -17905,7 +17907,7 @@
         <v>145</v>
       </c>
       <c r="G851" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
@@ -17925,7 +17927,7 @@
         <v>252</v>
       </c>
       <c r="G852" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.25">
@@ -17945,7 +17947,7 @@
         <v>744</v>
       </c>
       <c r="G853" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.25">
@@ -17965,7 +17967,7 @@
         <v>347</v>
       </c>
       <c r="G854" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.25">
@@ -17985,7 +17987,7 @@
         <v>145</v>
       </c>
       <c r="G855" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
@@ -18005,7 +18007,7 @@
         <v>252</v>
       </c>
       <c r="G856" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
@@ -18025,7 +18027,7 @@
         <v>744</v>
       </c>
       <c r="G857" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
@@ -18045,7 +18047,7 @@
         <v>321</v>
       </c>
       <c r="G858" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
@@ -18065,7 +18067,7 @@
         <v>147</v>
       </c>
       <c r="G859" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
@@ -18085,7 +18087,7 @@
         <v>276</v>
       </c>
       <c r="G860" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.25">
@@ -18105,7 +18107,7 @@
         <v>744</v>
       </c>
       <c r="G861" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
@@ -18125,7 +18127,7 @@
         <v>347</v>
       </c>
       <c r="G862" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
@@ -18145,7 +18147,7 @@
         <v>145</v>
       </c>
       <c r="G863" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
@@ -18165,7 +18167,7 @@
         <v>252</v>
       </c>
       <c r="G864" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
@@ -18185,7 +18187,7 @@
         <v>744</v>
       </c>
       <c r="G865" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
@@ -18205,7 +18207,7 @@
         <v>334</v>
       </c>
       <c r="G866" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
@@ -18225,7 +18227,7 @@
         <v>146</v>
       </c>
       <c r="G867" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.25">
@@ -18245,7 +18247,7 @@
         <v>264</v>
       </c>
       <c r="G868" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.25">
@@ -18265,7 +18267,7 @@
         <v>744</v>
       </c>
       <c r="G869" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
@@ -18285,7 +18287,7 @@
         <v>321</v>
       </c>
       <c r="G870" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
@@ -18305,7 +18307,7 @@
         <v>147</v>
       </c>
       <c r="G871" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
@@ -18325,7 +18327,7 @@
         <v>276</v>
       </c>
       <c r="G872" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.25">
@@ -18345,7 +18347,7 @@
         <v>744</v>
       </c>
       <c r="G873" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.25">
@@ -18365,7 +18367,7 @@
         <v>321</v>
       </c>
       <c r="G874" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.25">
@@ -18385,7 +18387,7 @@
         <v>147</v>
       </c>
       <c r="G875" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.25">
@@ -18405,7 +18407,7 @@
         <v>276</v>
       </c>
       <c r="G876" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.25">
@@ -18425,7 +18427,7 @@
         <v>744</v>
       </c>
       <c r="G877" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.25">
@@ -18445,7 +18447,7 @@
         <v>334</v>
       </c>
       <c r="G878" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
@@ -18465,7 +18467,7 @@
         <v>146</v>
       </c>
       <c r="G879" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
@@ -18485,7 +18487,7 @@
         <v>264</v>
       </c>
       <c r="G880" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.25">
@@ -18505,7 +18507,7 @@
         <v>744</v>
       </c>
       <c r="G881" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.25">
@@ -18525,7 +18527,7 @@
         <v>348</v>
       </c>
       <c r="G882" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.25">
@@ -18545,7 +18547,7 @@
         <v>162</v>
       </c>
       <c r="G883" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.25">
@@ -18565,7 +18567,7 @@
         <v>210</v>
       </c>
       <c r="G884" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.25">
@@ -18585,7 +18587,7 @@
         <v>720</v>
       </c>
       <c r="G885" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.25">
@@ -18605,7 +18607,7 @@
         <v>348</v>
       </c>
       <c r="G886" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.25">
@@ -18625,7 +18627,7 @@
         <v>162</v>
       </c>
       <c r="G887" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.25">
@@ -18645,7 +18647,7 @@
         <v>210</v>
       </c>
       <c r="G888" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.25">
@@ -18665,7 +18667,7 @@
         <v>720</v>
       </c>
       <c r="G889" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.25">
@@ -18685,7 +18687,7 @@
         <v>348</v>
       </c>
       <c r="G890" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.25">
@@ -18705,7 +18707,7 @@
         <v>162</v>
       </c>
       <c r="G891" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
@@ -18725,7 +18727,7 @@
         <v>210</v>
       </c>
       <c r="G892" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.25">
@@ -18745,7 +18747,7 @@
         <v>720</v>
       </c>
       <c r="G893" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
@@ -18765,7 +18767,7 @@
         <v>360</v>
       </c>
       <c r="G894" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.25">
@@ -18785,7 +18787,7 @@
         <v>160</v>
       </c>
       <c r="G895" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.25">
@@ -18805,7 +18807,7 @@
         <v>200</v>
       </c>
       <c r="G896" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.25">
@@ -18825,7 +18827,7 @@
         <v>720</v>
       </c>
       <c r="G897" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.25">
@@ -18845,7 +18847,7 @@
         <v>348</v>
       </c>
       <c r="G898" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.25">
@@ -18865,7 +18867,7 @@
         <v>162</v>
       </c>
       <c r="G899" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.25">
@@ -18885,7 +18887,7 @@
         <v>210</v>
       </c>
       <c r="G900" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.25">
@@ -18905,7 +18907,7 @@
         <v>720</v>
       </c>
       <c r="G901" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
@@ -18925,7 +18927,7 @@
         <v>368</v>
       </c>
       <c r="G902" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
@@ -18945,7 +18947,7 @@
         <v>166</v>
       </c>
       <c r="G903" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
@@ -18965,7 +18967,7 @@
         <v>210</v>
       </c>
       <c r="G904" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
@@ -18985,7 +18987,7 @@
         <v>744</v>
       </c>
       <c r="G905" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.25">
@@ -19005,7 +19007,7 @@
         <v>380</v>
       </c>
       <c r="G906" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.25">
@@ -19025,7 +19027,7 @@
         <v>164</v>
       </c>
       <c r="G907" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
@@ -19045,7 +19047,7 @@
         <v>200</v>
       </c>
       <c r="G908" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
@@ -19065,7 +19067,7 @@
         <v>744</v>
       </c>
       <c r="G909" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
@@ -19085,7 +19087,7 @@
         <v>380</v>
       </c>
       <c r="G910" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
@@ -19105,7 +19107,7 @@
         <v>164</v>
       </c>
       <c r="G911" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
@@ -19125,7 +19127,7 @@
         <v>200</v>
       </c>
       <c r="G912" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
@@ -19145,7 +19147,7 @@
         <v>744</v>
       </c>
       <c r="G913" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
@@ -19165,7 +19167,7 @@
         <v>368</v>
       </c>
       <c r="G914" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
@@ -19185,7 +19187,7 @@
         <v>166</v>
       </c>
       <c r="G915" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
@@ -19205,7 +19207,7 @@
         <v>210</v>
       </c>
       <c r="G916" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
@@ -19225,7 +19227,7 @@
         <v>744</v>
       </c>
       <c r="G917" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
@@ -19245,7 +19247,7 @@
         <v>344</v>
       </c>
       <c r="G918" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
@@ -19265,7 +19267,7 @@
         <v>170</v>
       </c>
       <c r="G919" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.25">
@@ -19285,7 +19287,7 @@
         <v>230</v>
       </c>
       <c r="G920" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.25">
@@ -19305,7 +19307,7 @@
         <v>744</v>
       </c>
       <c r="G921" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.25">
@@ -19325,7 +19327,7 @@
         <v>370</v>
       </c>
       <c r="G922" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.25">
@@ -19345,7 +19347,7 @@
         <v>190</v>
       </c>
       <c r="G923" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
@@ -19365,7 +19367,7 @@
         <v>160</v>
       </c>
       <c r="G924" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
@@ -19385,7 +19387,7 @@
         <v>720</v>
       </c>
       <c r="G925" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
@@ -19405,7 +19407,7 @@
         <v>370</v>
       </c>
       <c r="G926" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
@@ -19425,7 +19427,7 @@
         <v>190</v>
       </c>
       <c r="G927" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.25">
@@ -19445,7 +19447,7 @@
         <v>160</v>
       </c>
       <c r="G928" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.25">
@@ -19465,7 +19467,7 @@
         <v>720</v>
       </c>
       <c r="G929" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.25">
@@ -19485,7 +19487,7 @@
         <v>370</v>
       </c>
       <c r="G930" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.25">
@@ -19505,7 +19507,7 @@
         <v>190</v>
       </c>
       <c r="G931" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.25">
@@ -19525,7 +19527,7 @@
         <v>160</v>
       </c>
       <c r="G932" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.25">
@@ -19545,7 +19547,7 @@
         <v>720</v>
       </c>
       <c r="G933" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.25">
@@ -19565,7 +19567,7 @@
         <v>370</v>
       </c>
       <c r="G934" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
@@ -19585,7 +19587,7 @@
         <v>190</v>
       </c>
       <c r="G935" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.25">
@@ -19605,7 +19607,7 @@
         <v>160</v>
       </c>
       <c r="G936" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
@@ -19625,7 +19627,7 @@
         <v>720</v>
       </c>
       <c r="G937" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
@@ -19645,7 +19647,7 @@
         <v>370</v>
       </c>
       <c r="G938" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.25">
@@ -19665,7 +19667,7 @@
         <v>190</v>
       </c>
       <c r="G939" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.25">
@@ -19685,7 +19687,7 @@
         <v>160</v>
       </c>
       <c r="G940" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
@@ -19705,7 +19707,7 @@
         <v>720</v>
       </c>
       <c r="G941" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.25">
@@ -19725,7 +19727,7 @@
         <v>365</v>
       </c>
       <c r="G942" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.25">
@@ -19745,7 +19747,7 @@
         <v>203</v>
       </c>
       <c r="G943" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.25">
@@ -19765,7 +19767,7 @@
         <v>176</v>
       </c>
       <c r="G944" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.25">
@@ -19785,7 +19787,7 @@
         <v>744</v>
       </c>
       <c r="G945" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.25">
@@ -19805,7 +19807,7 @@
         <v>352</v>
       </c>
       <c r="G946" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.25">
@@ -19825,7 +19827,7 @@
         <v>208</v>
       </c>
       <c r="G947" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
@@ -19845,7 +19847,7 @@
         <v>184</v>
       </c>
       <c r="G948" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
@@ -19865,7 +19867,7 @@
         <v>744</v>
       </c>
       <c r="G949" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
@@ -19885,7 +19887,7 @@
         <v>365</v>
       </c>
       <c r="G950" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
@@ -19905,7 +19907,7 @@
         <v>203</v>
       </c>
       <c r="G951" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
@@ -19925,7 +19927,7 @@
         <v>176</v>
       </c>
       <c r="G952" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
@@ -19945,7 +19947,7 @@
         <v>744</v>
       </c>
       <c r="G953" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
@@ -19965,7 +19967,7 @@
         <v>391</v>
       </c>
       <c r="G954" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
@@ -19985,7 +19987,7 @@
         <v>193</v>
       </c>
       <c r="G955" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
@@ -20005,7 +20007,7 @@
         <v>160</v>
       </c>
       <c r="G956" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
@@ -20025,7 +20027,7 @@
         <v>744</v>
       </c>
       <c r="G957" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
@@ -20045,7 +20047,7 @@
         <v>378</v>
       </c>
       <c r="G958" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
@@ -20065,7 +20067,7 @@
         <v>198</v>
       </c>
       <c r="G959" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.25">
@@ -20085,7 +20087,7 @@
         <v>168</v>
       </c>
       <c r="G960" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
@@ -20105,7 +20107,7 @@
         <v>744</v>
       </c>
       <c r="G961" s="1">
-        <v>43818</v>
+        <v>43880</v>
       </c>
     </row>
   </sheetData>
